--- a/biology/Zoologie/Henry_Bryant_Bigelow/Henry_Bryant_Bigelow.xlsx
+++ b/biology/Zoologie/Henry_Bryant_Bigelow/Henry_Bryant_Bigelow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Bryant Bigelow est un océanographe et un ichtyologiste américain, né le 3 octobre 1879 à Boston et mort le 11 décembre 1967 à Concord (Massachusetts).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d’une famille aisée, il peut se consacrer très tôt à son intérêt pour la nature et pour le sport. Il est diplômé à la Milton Academy à seize ans. Il passe une année auprès d’Alpheus Hyatt (1838-1902), conservateur du muséum d’histoire naturelle de Boston. Il entre alors à l’université Harvard. Il participe en 1900, à l’expédition Brown-Harvard conduite par Reginald Aldworth Daly (1871-1957) à Terre-Neuve-et-Labrador. L’année suivante, il convainc Alexander Emanuel Agassiz (1835-1910) de l’accepter dans une expédition pour les îles Maldives. Diplômé à Harvard en 1901, il continue ses recherches en zoologie auprès de George Howard Parker (1864-1955) et d’Edward Laurens Mark (1847-1946). Après avoir obtenu son Master of Arts en 1904, il accompagne Agassiz dans une expédition dans l’est du Pacifique. Il reçoit son doctorat en 1906.
 Ses nombreux voyages permettent à Bigelow de fréquenter la plupart des centres de recherche en biologie marine. Il commence à étudier les oiseaux et les méduses. Bigelow, sur les conseils de Sir John Murray (1841-1914), étudie le golfe du Maine. Cette longue étude, qu’il conduit avec le soutien du Museum of Comparative Zoology et du département des pêches des États-Unis, va le faire connaître comme océanographe.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) AGU</t>
         </is>
